--- a/eis_dataset.xlsx
+++ b/eis_dataset.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Temperature (deg C)</t>
+          <t>Temperature (℃)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -4331,6 +4331,831 @@
       </c>
       <c r="G156" t="n">
         <v>4.325052123420458e-07</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F157" t="n">
+        <v>80</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.0001136940209447081</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>12</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E158" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F158" t="n">
+        <v>40</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2.845128298305075e-06</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E159" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F159" t="n">
+        <v>70</v>
+      </c>
+      <c r="G159" t="n">
+        <v>6.159519482439183e-05</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F160" t="n">
+        <v>40</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2.851413743853325e-06</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>12</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E161" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F161" t="n">
+        <v>80</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9.814660054667202e-05</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F162" t="n">
+        <v>50</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.064866458114472e-05</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E163" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F163" t="n">
+        <v>60</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4.594995594895227e-05</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>12</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E164" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F164" t="n">
+        <v>50</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.362319099249592e-05</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F165" t="n">
+        <v>70</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3.588225990634383e-10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>12</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E166" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F166" t="n">
+        <v>30</v>
+      </c>
+      <c r="G166" t="n">
+        <v>6.862114151744212e-07</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>13</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F167" t="n">
+        <v>60</v>
+      </c>
+      <c r="G167" t="n">
+        <v>8.057651032571168e-05</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F168" t="n">
+        <v>60</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3.778976019014966e-06</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F169" t="n">
+        <v>30</v>
+      </c>
+      <c r="G169" t="n">
+        <v>6.861363838459782e-07</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F170" t="n">
+        <v>50</v>
+      </c>
+      <c r="G170" t="n">
+        <v>6.880858398320414e-05</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E171" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F171" t="n">
+        <v>30</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4.341928684329221e-07</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>13</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F172" t="n">
+        <v>50</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7.211640226452461e-05</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>13</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F173" t="n">
+        <v>40</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4.666476120351755e-06</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F174" t="n">
+        <v>80</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.0008809813112702744</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F175" t="n">
+        <v>40</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4.037198184087496e-05</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E176" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F176" t="n">
+        <v>50</v>
+      </c>
+      <c r="G176" t="n">
+        <v>6.275098200904883e-06</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>12</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E177" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F177" t="n">
+        <v>60</v>
+      </c>
+      <c r="G177" t="n">
+        <v>8.804176182751864e-05</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>13</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F178" t="n">
+        <v>30</v>
+      </c>
+      <c r="G178" t="n">
+        <v>9.453709358195055e-07</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>8</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F179" t="n">
+        <v>60</v>
+      </c>
+      <c r="G179" t="n">
+        <v>8.187694085441216e-05</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F180" t="n">
+        <v>70</v>
+      </c>
+      <c r="G180" t="n">
+        <v>8.774295518336144e-05</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E181" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F181" t="n">
+        <v>80</v>
+      </c>
+      <c r="G181" t="n">
+        <v>7.511851578643229e-05</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>12</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E182" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F182" t="n">
+        <v>70</v>
+      </c>
+      <c r="G182" t="n">
+        <v>9.057571711591791e-05</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>20231211</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E183" t="n">
+        <v>104202</v>
+      </c>
+      <c r="F183" t="n">
+        <v>40</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.639185105472994e-06</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>20231212</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>104203</v>
+      </c>
+      <c r="F184" t="n">
+        <v>60</v>
+      </c>
+      <c r="G184" t="n">
+        <v>8.150919328607015e-05</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>20231212</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>4</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>104203</v>
+      </c>
+      <c r="F185" t="n">
+        <v>70</v>
+      </c>
+      <c r="G185" t="n">
+        <v>8.543834283394997e-05</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>20231212</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>104203</v>
+      </c>
+      <c r="F186" t="n">
+        <v>30</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.687122732231043e-06</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>20231212</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>104203</v>
+      </c>
+      <c r="F187" t="n">
+        <v>80</v>
+      </c>
+      <c r="G187" t="n">
+        <v>3.949738025509217e-06</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>20231212</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>4</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>104203</v>
+      </c>
+      <c r="F188" t="n">
+        <v>40</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.293752484268973e-05</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>20231212</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>LiTFSI-LiClO4-PEO</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>104203</v>
+      </c>
+      <c r="F189" t="n">
+        <v>50</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5.678025599408556e-05</v>
       </c>
     </row>
   </sheetData>

--- a/eis_dataset.xlsx
+++ b/eis_dataset.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5158,6 +5158,631 @@
         <v>5.678025599408556e-05</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F190" t="n">
+        <v>25</v>
+      </c>
+      <c r="G190" t="n">
+        <v>6.507287698498138e-07</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>11</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F191" t="n">
+        <v>60</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4.792782374178953e-06</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>15</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E192" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F192" t="n">
+        <v>25</v>
+      </c>
+      <c r="G192" t="n">
+        <v>7.272205644302441e-09</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>13</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E193" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F193" t="n">
+        <v>60</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.097047161223201e-06</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>10</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3</v>
+      </c>
+      <c r="E194" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F194" t="n">
+        <v>80</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.562537247948149e-05</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>9</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E195" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F195" t="n">
+        <v>60</v>
+      </c>
+      <c r="G195" t="n">
+        <v>8.283237175974918e-06</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>10</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3</v>
+      </c>
+      <c r="E196" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F196" t="n">
+        <v>40</v>
+      </c>
+      <c r="G196" t="n">
+        <v>7.246298030121486e-07</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>15</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E197" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F197" t="n">
+        <v>40</v>
+      </c>
+      <c r="G197" t="n">
+        <v>6.024289248385836e-08</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>14</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E198" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F198" t="n">
+        <v>80</v>
+      </c>
+      <c r="G198" t="n">
+        <v>3.622178988454662e-06</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>15</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E199" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F199" t="n">
+        <v>80</v>
+      </c>
+      <c r="G199" t="n">
+        <v>4.031010464751199e-06</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>14</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E200" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F200" t="n">
+        <v>40</v>
+      </c>
+      <c r="G200" t="n">
+        <v>3.98606694456365e-08</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>10</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F201" t="n">
+        <v>25</v>
+      </c>
+      <c r="G201" t="n">
+        <v>9.331266289770073e-08</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F202" t="n">
+        <v>40</v>
+      </c>
+      <c r="G202" t="n">
+        <v>8.95802581459063e-06</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F203" t="n">
+        <v>80</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0001852121364430654</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>13</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E204" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F204" t="n">
+        <v>25</v>
+      </c>
+      <c r="G204" t="n">
+        <v>5.821664498190583e-09</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>15</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E205" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F205" t="n">
+        <v>60</v>
+      </c>
+      <c r="G205" t="n">
+        <v>6.099527814787008e-07</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>14</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E206" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F206" t="n">
+        <v>60</v>
+      </c>
+      <c r="G206" t="n">
+        <v>4.677671740903074e-07</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F207" t="n">
+        <v>60</v>
+      </c>
+      <c r="G207" t="n">
+        <v>5.509648082543179e-05</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>11</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3</v>
+      </c>
+      <c r="E208" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F208" t="n">
+        <v>25</v>
+      </c>
+      <c r="G208" t="n">
+        <v>7.948606861221815e-08</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>11</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3</v>
+      </c>
+      <c r="E209" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F209" t="n">
+        <v>80</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.61286458258096e-05</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>11</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3</v>
+      </c>
+      <c r="E210" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F210" t="n">
+        <v>40</v>
+      </c>
+      <c r="G210" t="n">
+        <v>8.450152904967232e-07</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>9</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E211" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F211" t="n">
+        <v>80</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2.583553788999682e-05</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>13</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E212" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F212" t="n">
+        <v>40</v>
+      </c>
+      <c r="G212" t="n">
+        <v>7.210878185061791e-08</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>10</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F213" t="n">
+        <v>60</v>
+      </c>
+      <c r="G213" t="n">
+        <v>4.122910876215182e-06</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>LiTFSI-PEO</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>13</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E214" t="n">
+        <v>104411</v>
+      </c>
+      <c r="F214" t="n">
+        <v>80</v>
+      </c>
+      <c r="G214" t="n">
+        <v>9.938884743178583e-06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
